--- a/src/proyectoIntegradorJava/Archivos/Pronostico.xlsx
+++ b/src/proyectoIntegradorJava/Archivos/Pronostico.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604113BF-5426-4844-8877-46269A3FB318}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EF927E-F129-4C92-B625-DF3C2B985803}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="2550" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>Argentina</t>
   </si>
@@ -35,15 +35,49 @@
   </si>
   <si>
     <t>Mexico</t>
+  </si>
+  <si>
+    <t>Participante</t>
+  </si>
+  <si>
+    <t>Gana Eq1</t>
+  </si>
+  <si>
+    <t>Empate</t>
+  </si>
+  <si>
+    <t>Gana Eq2</t>
+  </si>
+  <si>
+    <t>Equipo2</t>
+  </si>
+  <si>
+    <t>Equipo 1</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -58,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -66,12 +100,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,37 +580,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="14">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>